--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_GPSGLOBAL.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_GPSGLOBAL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang7\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNETGPS\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang7\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="48" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="89">
   <si>
     <t>STT</t>
   </si>
@@ -257,6 +257,63 @@
   <si>
     <t>22/07/2022</t>
   </si>
+  <si>
+    <t>SE.4.00.---05.200416</t>
+  </si>
+  <si>
+    <t>Lock: 027.000.012.023,09008</t>
+  </si>
+  <si>
+    <t>Thiết bị mất nguồn 4v4</t>
+  </si>
+  <si>
+    <t>SE.3.00.---02.180711</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi module Module GPS</t>
+  </si>
+  <si>
+    <t>Thay module GPS</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>SE.2.03.---22.111215</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,15555</t>
+  </si>
+  <si>
+    <t>SE.3.00.---01.120817</t>
+  </si>
+  <si>
+    <t>Chập module GSM</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>Xử lý lại khay sim</t>
+  </si>
+  <si>
+    <t>Thiết bị mất cấu hình</t>
+  </si>
+  <si>
+    <t>Nạp lại FW, cấu hình lại thiết bị</t>
+  </si>
 </sst>
 </file>
 
@@ -452,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -678,6 +735,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3235,13 +3295,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3253,6 +3306,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3263,8 +3323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B14"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3490,17 +3550,35 @@
       <c r="G6" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
+      <c r="H6" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>81</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="K6" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
       <c r="U6" s="61" t="s">
@@ -3530,16 +3608,32 @@
         <v>65</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
+      <c r="I7" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="M7" s="39"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
       <c r="U7" s="62"/>
@@ -3567,16 +3661,34 @@
         <v>65</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="I8" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>86</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
       <c r="U8" s="62"/>
@@ -3605,15 +3717,29 @@
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="L9" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>88</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
       <c r="U9" s="62"/>
@@ -3641,16 +3767,32 @@
         <v>65</v>
       </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
+      <c r="I10" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>82</v>
+      </c>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
+      <c r="M10" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="76">
+        <v>385000</v>
+      </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="P10" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
       <c r="U10" s="62"/>
@@ -3678,16 +3820,32 @@
         <v>65</v>
       </c>
       <c r="H11" s="58"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
+      <c r="I11" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>73</v>
+      </c>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
+      <c r="M11" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" s="76">
+        <v>385000</v>
+      </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="P11" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
       <c r="U11" s="62"/>
@@ -3715,16 +3873,32 @@
         <v>65</v>
       </c>
       <c r="H12" s="58"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
+      <c r="M12" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="76">
+        <v>385000</v>
+      </c>
       <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="P12" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
       <c r="U12" s="61" t="s">
@@ -3754,16 +3928,32 @@
         <v>65</v>
       </c>
       <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="51" t="s">
+        <v>71</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="K13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
       <c r="U13" s="62"/>
@@ -3791,16 +3981,32 @@
         <v>65</v>
       </c>
       <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="I14" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="1"/>
+      <c r="M14" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="76">
+        <v>275000</v>
+      </c>
       <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
+      <c r="P14" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
       <c r="U14" s="62"/>
@@ -3979,7 +4185,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -4011,7 +4217,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4192,7 +4398,7 @@
       </c>
       <c r="V27" s="9">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="13"/>
     </row>
@@ -4224,7 +4430,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -4256,7 +4462,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -4320,7 +4526,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -4352,7 +4558,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -4448,7 +4654,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4512,7 +4718,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4865,7 +5071,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -5577,13 +5783,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5595,6 +5794,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7879,13 +8085,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7897,6 +8096,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10165,13 +10371,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10183,6 +10382,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12507,13 +12713,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12525,6 +12724,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12535,8 +12741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14785,6 +14991,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14796,13 +15009,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16570,13 +16776,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16588,6 +16787,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_GPSGLOBAL.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_GPSGLOBAL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="48" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="90">
   <si>
     <t>STT</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>Nạp lại FW, cấu hình lại thiết bị</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.181005</t>
   </si>
 </sst>
 </file>
@@ -691,28 +694,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,11 +715,32 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,43 +1081,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1159,58 +1162,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -1235,23 +1238,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1285,7 +1288,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1316,7 +1319,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1345,7 +1348,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1374,7 +1377,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1403,7 +1406,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1432,7 +1435,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1461,7 +1464,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1492,7 +1495,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1521,7 +1524,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1550,7 +1553,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1579,7 +1582,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3295,6 +3298,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3306,13 +3316,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3323,8 +3326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showZeros="0" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3356,43 +3359,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3437,58 +3440,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -3513,23 +3516,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3581,7 +3584,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3636,7 +3639,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3691,7 +3694,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3742,7 +3745,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3780,7 +3783,7 @@
       <c r="M10" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="N10" s="76">
+      <c r="N10" s="61">
         <v>385000</v>
       </c>
       <c r="O10" s="1"/>
@@ -3795,7 +3798,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3833,7 +3836,7 @@
       <c r="M11" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="N11" s="76">
+      <c r="N11" s="61">
         <v>385000</v>
       </c>
       <c r="O11" s="1"/>
@@ -3848,7 +3851,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3886,7 +3889,7 @@
       <c r="M12" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="N12" s="76">
+      <c r="N12" s="61">
         <v>385000</v>
       </c>
       <c r="O12" s="1"/>
@@ -3901,7 +3904,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3956,7 +3959,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3994,7 +3997,7 @@
       <c r="M14" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="N14" s="76">
+      <c r="N14" s="61">
         <v>275000</v>
       </c>
       <c r="O14" s="1"/>
@@ -4009,7 +4012,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4038,7 +4041,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4067,7 +4070,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5783,6 +5786,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5794,13 +5804,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5844,43 +5847,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5925,58 +5928,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -6001,23 +6004,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6051,7 +6054,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6090,7 +6093,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6127,7 +6130,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6164,7 +6167,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6193,7 +6196,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6222,7 +6225,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6251,7 +6254,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6282,7 +6285,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6311,7 +6314,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6340,7 +6343,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6369,7 +6372,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8085,6 +8088,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8096,13 +8106,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8146,43 +8149,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8227,58 +8230,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -8303,23 +8306,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8353,7 +8356,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8392,7 +8395,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8421,7 +8424,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8450,7 +8453,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8479,7 +8482,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8508,7 +8511,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8537,7 +8540,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8568,7 +8571,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8597,7 +8600,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8626,7 +8629,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8655,7 +8658,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10371,6 +10374,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10382,13 +10392,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10399,8 +10402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B14"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10432,43 +10435,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10513,58 +10516,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -10589,23 +10592,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10639,7 +10642,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10678,7 +10681,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10715,7 +10718,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10752,7 +10755,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10789,7 +10792,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10826,7 +10829,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10853,7 +10856,9 @@
       <c r="H12" s="58"/>
       <c r="I12" s="51"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
       <c r="N12" s="1"/>
@@ -10863,7 +10868,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10902,7 +10907,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10939,7 +10944,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10968,7 +10973,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10997,7 +11002,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12713,6 +12718,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12724,13 +12736,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12774,43 +12779,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12855,58 +12860,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -12931,23 +12936,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12981,7 +12986,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13012,7 +13017,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13041,7 +13046,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13070,7 +13075,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13099,7 +13104,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13128,7 +13133,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13157,7 +13162,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13188,7 +13193,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13217,7 +13222,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13246,7 +13251,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13275,7 +13280,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14991,13 +14996,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15009,6 +15007,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15052,43 +15057,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="73"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -15133,58 +15138,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="69" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="69" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="69" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="69" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="69" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="69" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -15209,23 +15214,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="68"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15251,7 +15256,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="61" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15282,7 +15287,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="62"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15311,7 +15316,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="62"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15340,7 +15345,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="62"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15369,7 +15374,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="62"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15398,7 +15403,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="62"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15427,7 +15432,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="61" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15458,7 +15463,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="62"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15487,7 +15492,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="62"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15516,7 +15521,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="62"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15545,7 +15550,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="63"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16776,6 +16781,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16787,13 +16799,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_GPSGLOBAL.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_GPSGLOBAL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="48" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="123">
   <si>
     <t>STT</t>
   </si>
@@ -316,6 +316,105 @@
   </si>
   <si>
     <t>LE.1.00.---01.181005</t>
+  </si>
+  <si>
+    <t>LE.1.00.---05.190404</t>
+  </si>
+  <si>
+    <t>Lock: 125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>LE.3.00.---01.200923</t>
+  </si>
+  <si>
+    <t>Lỗi connector nguồn</t>
+  </si>
+  <si>
+    <t>Xử lý lại connector, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>Hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>027.000.012.023,09008</t>
+  </si>
+  <si>
+    <t>Nạp lại FW module</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>Nguồn chập chờn</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi GPS</t>
+  </si>
+  <si>
+    <t>Xử lý lại module GSM/GPS</t>
+  </si>
+  <si>
+    <t>LE.1.00.---04.181025</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180405</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>W.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>Thiết bị reset liên tục</t>
+  </si>
+  <si>
+    <t>Nạp lại FW, nâng cấp khay sim</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.180629</t>
+  </si>
+  <si>
+    <t>112.213.085.066,09008</t>
+  </si>
+  <si>
+    <t>Lock: 112.213.085.066,09008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.180629 </t>
+  </si>
+  <si>
+    <t>VI.1.00.---01.170906</t>
+  </si>
+  <si>
+    <t>VI.2.00.---21.200630</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200520.CAR01A10</t>
+  </si>
+  <si>
+    <t>027.000.012.023/09008</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200624.CAR01A10</t>
+  </si>
+  <si>
+    <t>Cấu hình lại thiết bị, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>MCH,NCFW</t>
   </si>
 </sst>
 </file>
@@ -697,6 +796,30 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -714,30 +837,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1081,43 +1180,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1162,58 +1261,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -1238,23 +1337,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1288,7 +1387,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1319,7 +1418,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1348,7 +1447,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1377,7 +1476,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1406,7 +1505,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1435,7 +1534,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1464,7 +1563,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1495,7 +1594,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1524,7 +1623,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1553,7 +1652,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1582,7 +1681,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3298,13 +3397,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3316,6 +3408,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3326,7 +3425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="E4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -3359,43 +3458,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3440,58 +3539,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -3516,23 +3615,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3584,7 +3683,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3639,7 +3738,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3694,7 +3793,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3745,7 +3844,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3798,7 +3897,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3851,7 +3950,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3904,7 +4003,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3959,7 +4058,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4012,7 +4111,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4041,7 +4140,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4070,7 +4169,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5786,13 +5885,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5804,6 +5896,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5814,8 +5913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B9"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5847,43 +5946,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5928,58 +6027,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -6004,23 +6103,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6042,19 +6141,35 @@
         <v>65</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="K6" s="55"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="L6" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>110</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6081,19 +6196,35 @@
         <v>65</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="51" t="s">
+        <v>114</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="K7" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>110</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6113,24 +6244,44 @@
       <c r="E8" s="38">
         <v>864811036963176</v>
       </c>
-      <c r="F8" s="37"/>
+      <c r="F8" s="37" t="s">
+        <v>80</v>
+      </c>
       <c r="G8" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
+      <c r="H8" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>113</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="K8" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>110</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6150,24 +6301,42 @@
       <c r="E9" s="38">
         <v>866192037844824</v>
       </c>
-      <c r="F9" s="37"/>
+      <c r="F9" s="37" t="s">
+        <v>80</v>
+      </c>
       <c r="G9" s="37" t="s">
         <v>65</v>
       </c>
       <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="51" t="s">
+        <v>114</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="K9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>110</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6196,7 +6365,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6225,7 +6394,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6254,7 +6423,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6285,7 +6454,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6314,7 +6483,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6343,7 +6512,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6372,7 +6541,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6554,7 +6723,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -6831,7 +7000,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -6959,7 +7128,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -7023,7 +7192,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8088,13 +8257,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8106,6 +8268,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8116,8 +8285,2326 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="17" style="19" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="53" style="19" customWidth="1"/>
+    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="33.5703125" style="25" customWidth="1"/>
+    <col min="13" max="13" width="58" style="19" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="19"/>
+    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
+    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="44"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="74"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="26"/>
+    </row>
+    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="26"/>
+    </row>
+    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="70"/>
+      <c r="M4" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="26"/>
+      <c r="U4" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4" s="45"/>
+    </row>
+    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="75"/>
+      <c r="B5" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="70"/>
+      <c r="K5" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="45"/>
+    </row>
+    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="54"/>
+      <c r="D6" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="38">
+        <v>860906041121234</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="59"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="38">
+        <v>860906041148740</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="59"/>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W8" s="59"/>
+    </row>
+    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="59"/>
+    </row>
+    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="59"/>
+    </row>
+    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W11" s="59"/>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="59"/>
+    </row>
+    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="59"/>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W14" s="59"/>
+    </row>
+    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="59"/>
+    </row>
+    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>11</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="59"/>
+    </row>
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>12</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="59"/>
+    </row>
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
+        <v>2</v>
+      </c>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>16</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V21" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>17</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="9">
+        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>18</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>19</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>20</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="46"/>
+    </row>
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V26" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>22</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V27" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>23</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="9">
+        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>24</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="V29" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>25</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V30" s="9">
+        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>26</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V31" s="9">
+        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="9">
+        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
+        <v>1</v>
+      </c>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33" s="9">
+        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34" s="9">
+        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V35" s="9">
+        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
+        <v>2</v>
+      </c>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>31</v>
+      </c>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V36" s="9">
+        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>32</v>
+      </c>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V37" s="9">
+        <f>SUM(V26:V36)</f>
+        <v>3</v>
+      </c>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>33</v>
+      </c>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>34</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>35</v>
+      </c>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="V40" s="9">
+        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>36</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V41" s="9">
+        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>37</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>38</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>39</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>40</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="V45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>41</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42</v>
+      </c>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>43</v>
+      </c>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="34">
+        <f>COUNTIF(J9:J20,"*GSM*")</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44</v>
+      </c>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
+      <c r="W49" s="43"/>
+      <c r="X49" s="32"/>
+    </row>
+    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28">
+        <v>45</v>
+      </c>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="32"/>
+    </row>
+    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>46</v>
+      </c>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="32"/>
+    </row>
+    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>47</v>
+      </c>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="32"/>
+    </row>
+    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>48</v>
+      </c>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="32"/>
+    </row>
+    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>49</v>
+      </c>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="32"/>
+    </row>
+    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>50</v>
+      </c>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="32"/>
+    </row>
+    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>51</v>
+      </c>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="32"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+    </row>
+    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>52</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="32"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+    </row>
+    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>53</v>
+      </c>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="32"/>
+    </row>
+    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>54</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="32"/>
+    </row>
+    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>55</v>
+      </c>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="32"/>
+    </row>
+    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>56</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+    </row>
+    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>57</v>
+      </c>
+      <c r="B62" s="54"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="32"/>
+    </row>
+    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>58</v>
+      </c>
+      <c r="B63" s="54"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+    </row>
+    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>59</v>
+      </c>
+      <c r="B64" s="54"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+    </row>
+    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>60</v>
+      </c>
+      <c r="B65" s="54"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+    </row>
+    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X115"/>
+  <sheetViews>
+    <sheetView showZeros="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8149,43 +10636,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8230,58 +10717,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -8306,57 +10793,73 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="54" t="s">
-        <v>69</v>
+      <c r="B6" s="54">
+        <v>44764</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="38">
-        <v>860906041121234</v>
+        <v>868183037807950</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="55"/>
+      <c r="I6" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>100</v>
+      </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>94</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8368,34 +10871,54 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>69</v>
+      <c r="B7" s="54">
+        <v>44764</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="38">
-        <v>860906041148740</v>
-      </c>
-      <c r="F7" s="37"/>
+        <v>867857039935635</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>80</v>
+      </c>
       <c r="G7" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
+      <c r="H7" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>71</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="K7" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8405,26 +10928,50 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="54"/>
+      <c r="B8" s="54">
+        <v>44764</v>
+      </c>
       <c r="C8" s="54"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="D8" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="38">
+        <v>868183034803333</v>
+      </c>
       <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
+      <c r="I8" s="51" t="s">
+        <v>71</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="K8" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8434,16 +10981,32 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="54">
+        <v>44764</v>
+      </c>
       <c r="C9" s="54"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
+      <c r="D9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868183035897979</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
       <c r="N9" s="1"/>
@@ -8453,7 +11016,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8463,26 +11026,50 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="54"/>
+      <c r="B10" s="54">
+        <v>44764</v>
+      </c>
       <c r="C10" s="54"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="D10" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="38">
+        <v>868183034810957</v>
+      </c>
       <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
+      <c r="I10" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>92</v>
+      </c>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>103</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8492,26 +11079,52 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="54">
+        <v>44764</v>
+      </c>
       <c r="C11" s="54"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="D11" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="38">
+        <v>868183038091828</v>
+      </c>
       <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H11" s="58"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="I11" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="39" t="s">
+        <v>94</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8521,26 +11134,50 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="54"/>
+      <c r="B12" s="54">
+        <v>44764</v>
+      </c>
       <c r="C12" s="54"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
+      <c r="D12" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="38">
+        <v>868183034792460</v>
+      </c>
       <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="G12" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H12" s="58"/>
-      <c r="I12" s="51"/>
+      <c r="I12" s="51" t="s">
+        <v>71</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="K12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8552,26 +11189,54 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="54">
+        <v>44764</v>
+      </c>
       <c r="C13" s="54"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="D13" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="38">
+        <v>868183035871834</v>
+      </c>
       <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="G13" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>94</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8581,26 +11246,50 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="54"/>
+      <c r="B14" s="54">
+        <v>44764</v>
+      </c>
       <c r="C14" s="54"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="37"/>
+      <c r="D14" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="38">
+        <v>868183034578273</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="1"/>
+      <c r="I14" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="L14" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>99</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
+      <c r="O14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8629,7 +11318,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8658,7 +11347,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8776,7 +11465,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -8808,7 +11497,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -8840,7 +11529,7 @@
       </c>
       <c r="V22" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W22" s="13"/>
     </row>
@@ -9021,7 +11710,7 @@
       </c>
       <c r="V28" s="9">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="13"/>
     </row>
@@ -9053,7 +11742,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -9149,7 +11838,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -9245,7 +11934,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -9309,7 +11998,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -10374,13 +13063,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10392,18 +13074,25 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K17:K18"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10435,43 +13124,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10516,99 +13205,99 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="60" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="57" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="60" t="s">
+      <c r="J5" s="70"/>
+      <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10620,54 +13309,60 @@
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="37" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="E6" s="38">
-        <v>868183037807950</v>
+        <v>868183034573308</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
+      <c r="I6" s="51" t="s">
+        <v>98</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="55"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="L6" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="70" t="s">
+      <c r="T6" s="56"/>
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="59"/>
+      <c r="W6" s="56"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="54">
-        <v>44764</v>
-      </c>
+      <c r="B7" s="54"/>
       <c r="C7" s="54"/>
-      <c r="D7" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="38">
-        <v>867857039935635</v>
-      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="37" t="s">
-        <v>65</v>
-      </c>
+      <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="51"/>
       <c r="J7" s="1"/>
@@ -10680,31 +13375,23 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="71"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="59"/>
+      <c r="W7" s="56"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="54">
-        <v>44764</v>
-      </c>
+      <c r="B8" s="54"/>
       <c r="C8" s="54"/>
-      <c r="D8" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="38">
-        <v>868183034803333</v>
-      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="37" t="s">
-        <v>65</v>
-      </c>
+      <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="51"/>
       <c r="J8" s="1"/>
@@ -10717,31 +13404,23 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="71"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="59"/>
+      <c r="W8" s="56"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="54">
-        <v>44764</v>
-      </c>
+      <c r="B9" s="54"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="38">
-        <v>868183035897979</v>
-      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="37" t="s">
-        <v>65</v>
-      </c>
+      <c r="G9" s="37"/>
       <c r="H9" s="37"/>
       <c r="I9" s="51"/>
       <c r="J9" s="1"/>
@@ -10754,31 +13433,23 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="71"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="59"/>
+      <c r="W9" s="56"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="54">
-        <v>44764</v>
-      </c>
+      <c r="B10" s="54"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="38">
-        <v>868183034810957</v>
-      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="37" t="s">
-        <v>65</v>
-      </c>
+      <c r="G10" s="37"/>
       <c r="H10" s="37"/>
       <c r="I10" s="51"/>
       <c r="J10" s="1"/>
@@ -10791,31 +13462,23 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="71"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="59"/>
+      <c r="W10" s="56"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="54">
-        <v>44764</v>
-      </c>
+      <c r="B11" s="54"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="38">
-        <v>868183038091828</v>
-      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="37"/>
-      <c r="G11" s="37" t="s">
-        <v>65</v>
-      </c>
+      <c r="G11" s="37"/>
       <c r="H11" s="58"/>
       <c r="I11" s="51"/>
       <c r="J11" s="1"/>
@@ -10828,37 +13491,27 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="71"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="59"/>
+      <c r="W11" s="56"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="54">
-        <v>44764</v>
-      </c>
+      <c r="B12" s="54"/>
       <c r="C12" s="54"/>
-      <c r="D12" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="38">
-        <v>868183034792460</v>
-      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="37"/>
-      <c r="G12" s="37" t="s">
-        <v>65</v>
-      </c>
+      <c r="G12" s="37"/>
       <c r="H12" s="58"/>
       <c r="I12" s="51"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="K12" s="1"/>
       <c r="L12" s="39"/>
       <c r="M12" s="39"/>
       <c r="N12" s="1"/>
@@ -10867,33 +13520,25 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="70" t="s">
+      <c r="T12" s="56"/>
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="59"/>
+      <c r="W12" s="56"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="54">
-        <v>44764</v>
-      </c>
+      <c r="B13" s="54"/>
       <c r="C13" s="54"/>
-      <c r="D13" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="38">
-        <v>868183035871834</v>
-      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="37"/>
-      <c r="G13" s="37" t="s">
-        <v>65</v>
-      </c>
+      <c r="G13" s="37"/>
       <c r="H13" s="47"/>
       <c r="I13" s="51"/>
       <c r="J13" s="1"/>
@@ -10906,31 +13551,23 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="71"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="59"/>
+      <c r="W13" s="56"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="54">
-        <v>44764</v>
-      </c>
+      <c r="B14" s="54"/>
       <c r="C14" s="54"/>
-      <c r="D14" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="38">
-        <v>868183034578273</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37" t="s">
-        <v>65</v>
-      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="47"/>
       <c r="I14" s="51"/>
       <c r="J14" s="1"/>
@@ -10943,12 +13580,12 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="71"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="59"/>
+      <c r="W14" s="56"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -10973,11 +13610,11 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="59"/>
+      <c r="W15" s="56"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -11002,11 +13639,11 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="59"/>
+      <c r="W16" s="56"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -11030,9 +13667,9 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="59"/>
+      <c r="U17" s="56"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="59"/>
+      <c r="W17" s="56"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -11084,7 +13721,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="60" t="s">
+      <c r="U19" s="57" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -11120,7 +13757,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -11265,7 +13902,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="60" t="s">
+      <c r="U25" s="57" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -11589,7 +14226,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -11653,7 +14290,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -12736,2284 +15373,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X115"/>
-  <sheetViews>
-    <sheetView showZeros="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="17" style="19" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="53" style="19" customWidth="1"/>
-    <col min="11" max="11" width="33.42578125" style="19" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="25" customWidth="1"/>
-    <col min="13" max="13" width="58" style="19" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" style="19" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" style="19" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="19" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="26.85546875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="19"/>
-    <col min="21" max="21" width="30.5703125" style="19" customWidth="1"/>
-    <col min="22" max="23" width="21.42578125" style="19" customWidth="1"/>
-    <col min="24" max="24" width="21.7109375" style="19" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="44"/>
-    </row>
-    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="26"/>
-    </row>
-    <row r="3" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="26"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="45"/>
-    </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="45"/>
-    </row>
-    <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="54">
-        <v>44764</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="38">
-        <v>868183034573308</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="W6" s="56"/>
-    </row>
-    <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W7" s="56"/>
-    </row>
-    <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W8" s="56"/>
-    </row>
-    <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W9" s="56"/>
-    </row>
-    <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W10" s="56"/>
-    </row>
-    <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W11" s="56"/>
-    </row>
-    <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="56"/>
-    </row>
-    <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="56"/>
-    </row>
-    <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>9</v>
-      </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W14" s="56"/>
-    </row>
-    <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>10</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="56"/>
-    </row>
-    <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>11</v>
-      </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="56"/>
-    </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>12</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="56"/>
-    </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>13</v>
-      </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="13"/>
-    </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>14</v>
-      </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W19" s="46"/>
-    </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>15</v>
-      </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>16</v>
-      </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V21" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="13"/>
-    </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>17</v>
-      </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="V22" s="9">
-        <f>COUNTIF($Q$6:$Q$51,"PC+PM")</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>18</v>
-      </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="13"/>
-    </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>19</v>
-      </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="13"/>
-    </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>20</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="W25" s="46"/>
-    </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>21</v>
-      </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V26" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="13"/>
-    </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>22</v>
-      </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V27" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="13"/>
-    </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V28" s="9">
-        <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="13"/>
-    </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>24</v>
-      </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V29" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
-      </c>
-      <c r="W29" s="13"/>
-    </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="V30" s="9">
-        <f>COUNTIF($R$6:$R$51,"*I/O*")</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="13"/>
-    </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>26</v>
-      </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" s="9">
-        <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="13"/>
-    </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>27</v>
-      </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="9">
-        <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="13"/>
-    </row>
-    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>28</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V33" s="9">
-        <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="13"/>
-    </row>
-    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>29</v>
-      </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V34" s="9">
-        <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="13"/>
-    </row>
-    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="9">
-        <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="13"/>
-    </row>
-    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>31</v>
-      </c>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V36" s="9">
-        <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
-      </c>
-      <c r="W36" s="13"/>
-    </row>
-    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>32</v>
-      </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="39"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V37" s="9">
-        <f>SUM(V26:V36)</f>
-        <v>0</v>
-      </c>
-      <c r="W37" s="13"/>
-    </row>
-    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>33</v>
-      </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="39"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="13"/>
-    </row>
-    <row r="39" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>34</v>
-      </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="13"/>
-    </row>
-    <row r="40" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>35</v>
-      </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="39"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40" s="9">
-        <f>COUNTIF($O$6:$O$51,"*DM*")</f>
-        <v>0</v>
-      </c>
-      <c r="W40" s="13"/>
-    </row>
-    <row r="41" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>36</v>
-      </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="39"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="V41" s="9">
-        <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
-      </c>
-      <c r="W41" s="13"/>
-    </row>
-    <row r="42" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>37</v>
-      </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="13"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>38</v>
-      </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="39"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="13"/>
-    </row>
-    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>39</v>
-      </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="V44" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="W44" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="X44" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>40</v>
-      </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="39"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="V45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>41</v>
-      </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="V46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>42</v>
-      </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>43</v>
-      </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="39"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="34">
-        <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="V48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>44</v>
-      </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="39"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
-      <c r="X49" s="32"/>
-    </row>
-    <row r="50" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28">
-        <v>45</v>
-      </c>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="32"/>
-    </row>
-    <row r="51" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>46</v>
-      </c>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="32"/>
-    </row>
-    <row r="52" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>47</v>
-      </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="32"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="43"/>
-      <c r="X52" s="32"/>
-    </row>
-    <row r="53" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>48</v>
-      </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="32"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="32"/>
-    </row>
-    <row r="54" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>49</v>
-      </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="32"/>
-    </row>
-    <row r="55" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>50</v>
-      </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
-      <c r="X55" s="32"/>
-    </row>
-    <row r="56" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>51</v>
-      </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="32"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-    </row>
-    <row r="57" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>52</v>
-      </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="32"/>
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-    </row>
-    <row r="58" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>53</v>
-      </c>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="32"/>
-    </row>
-    <row r="59" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>54</v>
-      </c>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="32"/>
-    </row>
-    <row r="60" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>55</v>
-      </c>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="32"/>
-    </row>
-    <row r="61" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>56</v>
-      </c>
-      <c r="B61" s="54"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="32"/>
-      <c r="Q61" s="32"/>
-      <c r="R61" s="32"/>
-      <c r="S61" s="32"/>
-    </row>
-    <row r="62" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>57</v>
-      </c>
-      <c r="B62" s="54"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-    </row>
-    <row r="63" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>58</v>
-      </c>
-      <c r="B63" s="54"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-    </row>
-    <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>59</v>
-      </c>
-      <c r="B64" s="54"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-    </row>
-    <row r="65" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>60</v>
-      </c>
-      <c r="B65" s="54"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="32"/>
-    </row>
-    <row r="66" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15057,43 +15416,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -15138,58 +15497,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -15214,23 +15573,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="62"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="70"/>
       <c r="P5" s="76"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="75"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15256,7 +15615,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15287,7 +15646,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15316,7 +15675,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15345,7 +15704,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15374,7 +15733,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15403,7 +15762,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15432,7 +15791,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15463,7 +15822,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15492,7 +15851,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15521,7 +15880,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15550,7 +15909,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16781,13 +17140,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16799,6 +17151,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_GPSGLOBAL.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_GPSGLOBAL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="48" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="123">
   <si>
     <t>STT</t>
   </si>
@@ -796,30 +796,6 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -837,6 +813,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1180,43 +1180,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1261,58 +1261,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -1337,23 +1337,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1387,7 +1387,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1418,7 +1418,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1447,7 +1447,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1476,7 +1476,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1534,7 +1534,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1563,7 +1563,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1594,7 +1594,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1652,7 +1652,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3397,6 +3397,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3408,13 +3415,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3425,8 +3425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3458,43 +3458,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3539,58 +3539,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -3615,23 +3615,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4003,7 +4003,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4140,7 +4140,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4169,7 +4169,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5885,6 +5885,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5896,13 +5903,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5913,7 +5913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -5946,43 +5946,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6027,58 +6027,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -6103,23 +6103,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6224,7 +6224,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6336,7 +6336,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6365,7 +6365,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6394,7 +6394,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6423,7 +6423,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6454,7 +6454,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6483,7 +6483,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6512,7 +6512,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6541,7 +6541,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8257,6 +8257,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8268,13 +8275,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8285,8 +8285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8318,43 +8318,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8399,58 +8399,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -8475,23 +8475,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8596,7 +8596,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8625,7 +8625,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8654,7 +8654,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8683,7 +8683,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8712,7 +8712,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8741,7 +8741,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8772,7 +8772,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8801,7 +8801,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8830,7 +8830,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8859,7 +8859,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10575,6 +10575,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10586,13 +10593,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10603,8 +10603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10636,43 +10636,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10717,58 +10717,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -10793,23 +10793,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10918,7 +10918,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10971,7 +10971,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11007,16 +11007,28 @@
       <c r="K9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="L9" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11069,7 +11081,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11124,7 +11136,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11177,7 +11189,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11236,7 +11248,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11289,7 +11301,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11318,7 +11330,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11347,7 +11359,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11465,7 +11477,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -11934,7 +11946,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -11998,7 +12010,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -13063,6 +13075,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13074,13 +13093,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13091,7 +13103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -13124,43 +13136,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -13205,58 +13217,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -13281,23 +13293,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13345,7 +13357,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13376,7 +13388,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13405,7 +13417,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13434,7 +13446,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13463,7 +13475,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13492,7 +13504,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13521,7 +13533,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13552,7 +13564,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13581,7 +13593,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13610,7 +13622,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13639,7 +13651,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15355,13 +15367,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15373,6 +15378,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15416,43 +15428,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -15497,58 +15509,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -15573,23 +15585,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="70"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="62"/>
       <c r="P5" s="76"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="69"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15615,7 +15627,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15646,7 +15658,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15675,7 +15687,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15704,7 +15716,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15733,7 +15745,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15762,7 +15774,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15791,7 +15803,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15822,7 +15834,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15851,7 +15863,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15880,7 +15892,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15909,7 +15921,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17140,6 +17152,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17151,13 +17170,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_GPSGLOBAL.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_GPSGLOBAL.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="123">
   <si>
     <t>STT</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Thiết bị lỗi module Module GPS</t>
   </si>
   <si>
-    <t>Thay module GPS</t>
-  </si>
-  <si>
     <t>BT</t>
   </si>
   <si>
@@ -298,9 +295,6 @@
   </si>
   <si>
     <t>Chập module GSM</t>
-  </si>
-  <si>
-    <t>Thay module GSM</t>
   </si>
   <si>
     <t>Thiết bị không nhận sim</t>
@@ -415,6 +409,12 @@
   </si>
   <si>
     <t>MCH,NCFW</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Báo giá không sửa</t>
   </si>
 </sst>
 </file>
@@ -796,6 +796,30 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -813,30 +837,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1180,43 +1180,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1261,58 +1261,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -1337,23 +1337,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,9 @@
       <c r="B6" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44775</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>68</v>
       </c>
@@ -1387,7 +1389,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1418,7 +1420,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1447,7 +1449,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1476,7 +1478,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1505,7 +1507,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1534,7 +1536,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1563,7 +1565,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1594,7 +1596,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1623,7 +1625,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1652,7 +1654,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1681,7 +1683,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3397,13 +3399,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3415,6 +3410,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3425,8 +3427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="I4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3458,43 +3460,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3539,58 +3541,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -3615,23 +3617,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3641,7 +3643,9 @@
       <c r="B6" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44775</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>67</v>
       </c>
@@ -3653,10 +3657,10 @@
         <v>65</v>
       </c>
       <c r="H6" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="51" t="s">
         <v>80</v>
-      </c>
-      <c r="I6" s="51" t="s">
-        <v>81</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="55" t="s">
@@ -3670,10 +3674,10 @@
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="39" t="s">
         <v>77</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>19</v>
@@ -3683,7 +3687,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3698,7 +3702,9 @@
       <c r="B7" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44775</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>67</v>
       </c>
@@ -3725,10 +3731,10 @@
       <c r="M7" s="39"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="39" t="s">
         <v>77</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>18</v>
@@ -3738,7 +3744,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3751,7 +3757,9 @@
       <c r="B8" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44775</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>67</v>
       </c>
@@ -3767,23 +3775,23 @@
         <v>71</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K8" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L8" s="39" t="s">
         <v>74</v>
       </c>
       <c r="M8" s="39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="39" t="s">
         <v>77</v>
-      </c>
-      <c r="P8" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>18</v>
@@ -3793,7 +3801,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3806,7 +3814,9 @@
       <c r="B9" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54">
+        <v>44775</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>67</v>
       </c>
@@ -3820,21 +3830,21 @@
       <c r="H9" s="37"/>
       <c r="I9" s="51"/>
       <c r="J9" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="39" t="s">
         <v>74</v>
       </c>
       <c r="M9" s="39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="39" t="s">
         <v>77</v>
-      </c>
-      <c r="P9" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>19</v>
@@ -3844,7 +3854,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3857,7 +3867,9 @@
       <c r="B10" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="54">
+        <v>44775</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>67</v>
       </c>
@@ -3876,18 +3888,18 @@
         <v>75</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L10" s="39"/>
       <c r="M10" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="61">
-        <v>385000</v>
-      </c>
-      <c r="O10" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="N10" s="61"/>
+      <c r="O10" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="P10" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>18</v>
@@ -3897,7 +3909,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3910,7 +3922,9 @@
       <c r="B11" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="54">
+        <v>44775</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>67</v>
       </c>
@@ -3933,14 +3947,14 @@
       </c>
       <c r="L11" s="39"/>
       <c r="M11" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="61">
-        <v>385000</v>
-      </c>
-      <c r="O11" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="N11" s="61"/>
+      <c r="O11" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="P11" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>18</v>
@@ -3950,7 +3964,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3963,7 +3977,9 @@
       <c r="B12" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="54">
+        <v>44775</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>67</v>
       </c>
@@ -3982,18 +3998,18 @@
         <v>75</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" s="39"/>
       <c r="M12" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="N12" s="61">
-        <v>385000</v>
-      </c>
-      <c r="O12" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="N12" s="61"/>
+      <c r="O12" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="P12" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>18</v>
@@ -4003,7 +4019,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4018,7 +4034,9 @@
       <c r="B13" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="54">
+        <v>44775</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>67</v>
       </c>
@@ -4035,7 +4053,7 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L13" s="39" t="s">
         <v>74</v>
@@ -4045,10 +4063,10 @@
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="39" t="s">
         <v>77</v>
-      </c>
-      <c r="P13" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>19</v>
@@ -4058,7 +4076,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4071,7 +4089,9 @@
       <c r="B14" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="54">
+        <v>44775</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>67</v>
       </c>
@@ -4087,21 +4107,21 @@
         <v>71</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L14" s="39"/>
       <c r="M14" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="N14" s="61">
-        <v>275000</v>
-      </c>
-      <c r="O14" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="N14" s="61"/>
+      <c r="O14" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="P14" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>18</v>
@@ -4111,7 +4131,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4140,7 +4160,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4169,7 +4189,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4938,7 +4958,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -5885,13 +5905,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5903,6 +5916,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5913,8 +5933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5946,43 +5966,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6027,58 +6047,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -6103,23 +6123,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6129,7 +6149,9 @@
       <c r="B6" s="54">
         <v>44764</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44775</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>66</v>
       </c>
@@ -6145,31 +6167,31 @@
         <v>71</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K6" s="55"/>
       <c r="L6" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" s="39" t="s">
         <v>108</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>110</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="P6" s="39" t="s">
-        <v>78</v>
-      </c>
       <c r="Q6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6184,7 +6206,9 @@
       <c r="B7" s="54">
         <v>44764</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44775</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>66</v>
       </c>
@@ -6197,34 +6221,34 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M7" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="P7" s="39" t="s">
-        <v>78</v>
-      </c>
       <c r="Q7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6237,7 +6261,9 @@
       <c r="B8" s="54">
         <v>44764</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44775</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>66</v>
       </c>
@@ -6245,43 +6271,43 @@
         <v>864811036963176</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="37" t="s">
         <v>65</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L8" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="39" t="s">
         <v>108</v>
-      </c>
-      <c r="M8" s="39" t="s">
-        <v>110</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="39" t="s">
-        <v>78</v>
-      </c>
       <c r="Q8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6294,7 +6320,9 @@
       <c r="B9" s="54">
         <v>44764</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54">
+        <v>44775</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>66</v>
       </c>
@@ -6302,41 +6330,41 @@
         <v>866192037844824</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>65</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M9" s="39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="P9" s="39" t="s">
-        <v>78</v>
-      </c>
       <c r="Q9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6365,7 +6393,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6394,7 +6422,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6423,7 +6451,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6454,7 +6482,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6483,7 +6511,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6512,7 +6540,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6541,7 +6569,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8257,13 +8285,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8275,6 +8296,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8286,7 +8314,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8318,43 +8346,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8399,58 +8427,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -8475,23 +8503,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8501,7 +8529,9 @@
       <c r="B6" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44775</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -8518,30 +8548,30 @@
         <v>28</v>
       </c>
       <c r="K6" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="L6" s="39" t="s">
-        <v>120</v>
-      </c>
       <c r="M6" s="39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="39" t="s">
         <v>77</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8556,7 +8586,9 @@
       <c r="B7" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44775</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>45</v>
       </c>
@@ -8569,24 +8601,24 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="39" t="s">
         <v>118</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>120</v>
       </c>
       <c r="M7" s="39" t="s">
         <v>38</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="39" t="s">
         <v>77</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>19</v>
@@ -8596,7 +8628,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8625,7 +8657,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8654,7 +8686,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8683,7 +8715,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8712,7 +8744,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8741,7 +8773,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8772,7 +8804,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8801,7 +8833,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8830,7 +8862,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8859,7 +8891,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10575,13 +10607,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10593,6 +10618,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10603,8 +10635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10636,43 +10668,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10717,58 +10749,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -10793,23 +10825,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10819,7 +10851,9 @@
       <c r="B6" s="54">
         <v>44764</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44775</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -10835,31 +10869,31 @@
         <v>71</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="P6" s="39" t="s">
-        <v>78</v>
-      </c>
       <c r="Q6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10874,7 +10908,9 @@
       <c r="B7" s="54">
         <v>44764</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44775</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -10882,33 +10918,33 @@
         <v>867857039935635</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I7" s="51" t="s">
         <v>71</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M7" s="39" t="s">
         <v>38</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="39" t="s">
         <v>77</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>19</v>
@@ -10918,7 +10954,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10931,7 +10967,9 @@
       <c r="B8" s="54">
         <v>44764</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44775</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -10948,20 +10986,20 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M8" s="39" t="s">
         <v>38</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="39" t="s">
         <v>77</v>
-      </c>
-      <c r="P8" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>19</v>
@@ -10971,7 +11009,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10984,7 +11022,9 @@
       <c r="B9" s="54">
         <v>44764</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="54">
+        <v>44775</v>
+      </c>
       <c r="D9" s="37" t="s">
         <v>44</v>
       </c>
@@ -10992,33 +11032,33 @@
         <v>868183035897979</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>65</v>
       </c>
       <c r="H9" s="37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>71</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M9" s="39" t="s">
         <v>38</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="39" t="s">
         <v>77</v>
-      </c>
-      <c r="P9" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>19</v>
@@ -11028,7 +11068,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11041,7 +11081,9 @@
       <c r="B10" s="54">
         <v>44764</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="54">
+        <v>44775</v>
+      </c>
       <c r="D10" s="37" t="s">
         <v>44</v>
       </c>
@@ -11057,21 +11099,21 @@
         <v>71</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L10" s="39"/>
       <c r="M10" s="39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" s="39" t="s">
         <v>77</v>
-      </c>
-      <c r="P10" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>18</v>
@@ -11081,7 +11123,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11094,7 +11136,9 @@
       <c r="B11" s="54">
         <v>44764</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="54">
+        <v>44775</v>
+      </c>
       <c r="D11" s="37" t="s">
         <v>44</v>
       </c>
@@ -11110,33 +11154,33 @@
         <v>71</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L11" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="39" t="s">
         <v>92</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>94</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="39" t="s">
-        <v>78</v>
-      </c>
       <c r="Q11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11149,7 +11193,9 @@
       <c r="B12" s="54">
         <v>44764</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="54">
+        <v>44775</v>
+      </c>
       <c r="D12" s="37" t="s">
         <v>44</v>
       </c>
@@ -11166,20 +11212,20 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L12" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M12" s="39" t="s">
         <v>38</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="39" t="s">
         <v>77</v>
-      </c>
-      <c r="P12" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>19</v>
@@ -11189,7 +11235,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11204,7 +11250,9 @@
       <c r="B13" s="54">
         <v>44764</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="54">
+        <v>44775</v>
+      </c>
       <c r="D13" s="37" t="s">
         <v>44</v>
       </c>
@@ -11216,39 +11264,39 @@
         <v>65</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I13" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="K13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="M13" s="39" t="s">
         <v>92</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>94</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="39" t="s">
-        <v>78</v>
-      </c>
       <c r="Q13" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11261,7 +11309,9 @@
       <c r="B14" s="54">
         <v>44764</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="54">
+        <v>44775</v>
+      </c>
       <c r="D14" s="37" t="s">
         <v>44</v>
       </c>
@@ -11274,24 +11324,24 @@
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M14" s="39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="39" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>19</v>
@@ -11301,7 +11351,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11330,7 +11380,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11359,7 +11409,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13075,13 +13125,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13093,6 +13136,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13104,7 +13154,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13136,43 +13186,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -13217,58 +13267,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="73" t="s">
+      <c r="P4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -13293,23 +13343,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13319,7 +13369,9 @@
       <c r="B6" s="54">
         <v>44764</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44775</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
       </c>
@@ -13332,22 +13384,22 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="55"/>
       <c r="L6" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M6" s="39" t="s">
         <v>38</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="39" t="s">
         <v>77</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>78</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>19</v>
@@ -13357,7 +13409,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13388,7 +13440,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13417,7 +13469,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13446,7 +13498,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13475,7 +13527,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13504,7 +13556,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13533,7 +13585,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13564,7 +13616,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13593,7 +13645,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13622,7 +13674,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13651,7 +13703,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15367,6 +15419,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15378,13 +15437,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15428,43 +15480,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -15509,58 +15561,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="62"/>
-      <c r="M4" s="68" t="s">
+      <c r="L4" s="70"/>
+      <c r="M4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62" t="s">
+      <c r="O4" s="70" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="69" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="62" t="s">
+      <c r="U4" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="70" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -15585,23 +15637,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="62"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="62"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="70"/>
       <c r="P5" s="76"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="75"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="69"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15627,7 +15679,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="70" t="s">
+      <c r="U6" s="62" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15658,7 +15710,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="71"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15687,7 +15739,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="71"/>
+      <c r="U8" s="63"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15716,7 +15768,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="71"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15745,7 +15797,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="71"/>
+      <c r="U10" s="63"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15774,7 +15826,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="71"/>
+      <c r="U11" s="63"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15803,7 +15855,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="70" t="s">
+      <c r="U12" s="62" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15834,7 +15886,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="71"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15863,7 +15915,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="71"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15892,7 +15944,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="71"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15921,7 +15973,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="72"/>
+      <c r="U16" s="64"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17152,13 +17204,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17170,6 +17215,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_GPSGLOBAL.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_GPSGLOBAL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TG102" sheetId="48" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="124">
   <si>
     <t>STT</t>
   </si>
@@ -416,6 +416,9 @@
   <si>
     <t>Báo giá không sửa</t>
   </si>
+  <si>
+    <t>Nâng cấp FW, cấu hình lại thiết bị</t>
+  </si>
 </sst>
 </file>
 
@@ -611,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -796,30 +799,6 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -838,8 +817,35 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1180,43 +1186,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1261,58 +1267,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -1337,23 +1343,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1378,18 +1384,30 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="51"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="K6" s="55"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>123</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1420,7 +1438,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1449,7 +1467,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1478,7 +1496,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1507,7 +1525,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1536,7 +1554,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1565,7 +1583,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1596,7 +1614,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1625,7 +1643,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1654,7 +1672,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1683,7 +1701,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1801,7 +1819,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2174,7 +2192,7 @@
       </c>
       <c r="V32" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W32" s="13"/>
     </row>
@@ -2270,7 +2288,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2334,7 +2352,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3399,6 +3417,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3410,13 +3435,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3427,8 +3445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showZeros="0" topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3460,43 +3478,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3541,58 +3559,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -3617,23 +3635,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3687,7 +3705,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3744,7 +3762,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3801,7 +3819,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3854,7 +3872,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3909,7 +3927,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3964,7 +3982,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4019,7 +4037,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4076,7 +4094,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4131,7 +4149,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4160,7 +4178,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4189,7 +4207,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5905,6 +5923,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5916,13 +5941,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5933,8 +5951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C9"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5966,43 +5984,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6047,58 +6065,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -6123,23 +6141,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6162,7 +6180,7 @@
       <c r="G6" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="77"/>
       <c r="I6" s="51" t="s">
         <v>71</v>
       </c>
@@ -6191,7 +6209,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6219,11 +6237,13 @@
       <c r="G7" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="77"/>
       <c r="I7" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="K7" s="55" t="s">
         <v>110</v>
       </c>
@@ -6248,7 +6268,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6276,13 +6296,13 @@
       <c r="G8" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="37" t="s">
-        <v>104</v>
-      </c>
+      <c r="H8" s="77"/>
       <c r="I8" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="K8" s="55" t="s">
         <v>113</v>
       </c>
@@ -6307,7 +6327,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6335,11 +6355,13 @@
       <c r="G9" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="37"/>
+      <c r="H9" s="77"/>
       <c r="I9" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="K9" s="1" t="s">
         <v>114</v>
       </c>
@@ -6364,7 +6386,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6393,7 +6415,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6422,7 +6444,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6451,7 +6473,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6482,7 +6504,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6511,7 +6533,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6540,7 +6562,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6569,7 +6591,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7458,17 +7480,17 @@
       <c r="U45" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="V45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X45" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
+      <c r="V45" s="9" t="e">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$10:$H$300,"*Lô 3-20*")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W45" s="9" t="e">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$10:$H$300,"*Lô 1-21*")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X45" s="9" t="e">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE",$H$10:$H$300,"*Lô 2-21*")</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7497,17 +7519,17 @@
       <c r="U46" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="V46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X46" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
+      <c r="V46" s="9" t="e">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$10:$H$300,"*Lô 3-20*")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W46" s="9" t="e">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$10:$H$300,"*Lô 1-21*")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X46" s="9" t="e">
+        <f>COUNTIFS($D$6:$D$300,"TG102LE-4G",$H$10:$H$300,"*Lô 2-21*")</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7536,17 +7558,17 @@
       <c r="U47" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="V47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X47" s="9">
-        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
+      <c r="V47" s="9" t="e">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$10:$H$300,"*Lô 3-20*")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W47" s="9" t="e">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$10:$H$300,"*Lô 1-21*")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X47" s="9" t="e">
+        <f>COUNTIFS($D$6:$D$300,"TG102E",$H$10:$H$300,"*Lô 2-21*")</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7578,17 +7600,17 @@
       <c r="U48" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="V48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 3-20*")</f>
-        <v>0</v>
-      </c>
-      <c r="W48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 1-21*")</f>
-        <v>0</v>
-      </c>
-      <c r="X48" s="9">
-        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$6:$H$300,"*Lô 2-21*")</f>
-        <v>0</v>
+      <c r="V48" s="9" t="e">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$10:$H$300,"*Lô 3-20*")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W48" s="9" t="e">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$10:$H$300,"*Lô 1-21*")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X48" s="9" t="e">
+        <f>COUNTIFS($D$6:$D$300,"ACT-01",$H$10:$H$300,"*Lô 2-21*")</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8285,6 +8307,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8296,13 +8325,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8313,8 +8335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" topLeftCell="I4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8346,43 +8368,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8427,58 +8449,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -8503,23 +8525,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8571,7 +8593,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8628,7 +8650,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8657,7 +8679,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8686,7 +8708,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8715,7 +8737,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8744,7 +8766,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8773,7 +8795,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8804,7 +8826,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8833,7 +8855,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8862,7 +8884,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8891,7 +8913,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10607,6 +10629,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10618,13 +10647,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10635,8 +10657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C14"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10668,43 +10690,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10749,58 +10771,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="60" t="s">
         <v>1</v>
       </c>
@@ -10825,23 +10847,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10893,7 +10915,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10954,7 +10976,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="59"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11009,7 +11031,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11068,7 +11090,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="59"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11123,7 +11145,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11180,7 +11202,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="59"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11235,7 +11257,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11296,7 +11318,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="59"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11351,7 +11373,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11380,7 +11402,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11409,7 +11431,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13125,6 +13147,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13136,13 +13165,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13153,8 +13175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13186,43 +13208,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -13267,58 +13289,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -13343,23 +13365,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13409,7 +13431,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13440,7 +13462,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13469,7 +13491,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13498,7 +13520,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13527,7 +13549,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13556,7 +13578,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13585,7 +13607,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13616,7 +13638,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13645,7 +13667,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13674,7 +13696,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13703,7 +13725,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15419,13 +15441,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15437,6 +15452,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15480,43 +15502,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -15561,58 +15583,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="70" t="s">
+      <c r="K4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="70"/>
-      <c r="M4" s="67" t="s">
+      <c r="L4" s="62"/>
+      <c r="M4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="70" t="s">
+      <c r="O4" s="62" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="69" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="70" t="s">
+      <c r="U4" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="70" t="s">
+      <c r="V4" s="62" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -15637,23 +15659,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="70"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="70"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="62"/>
       <c r="P5" s="76"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="69"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15679,7 +15701,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="70" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15710,7 +15732,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="71"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15739,7 +15761,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="71"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15768,7 +15790,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="71"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15797,7 +15819,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="71"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15826,7 +15848,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="71"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15855,7 +15877,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="70" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15886,7 +15908,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="71"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15915,7 +15937,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="71"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15944,7 +15966,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="71"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15973,7 +15995,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="72"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17204,6 +17226,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17215,13 +17244,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
